--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col2a1-Itga2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col2a1-Itga2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Itga2</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.07108</v>
+        <v>0.02601433333333333</v>
       </c>
       <c r="H2">
-        <v>0.21324</v>
+        <v>0.078043</v>
       </c>
       <c r="I2">
-        <v>0.09618084380152485</v>
+        <v>0.0274105682925934</v>
       </c>
       <c r="J2">
-        <v>0.0966656602993535</v>
+        <v>0.02930649836480982</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.042935333333334</v>
+        <v>3.031236</v>
       </c>
       <c r="N2">
-        <v>9.128806000000001</v>
+        <v>9.093708000000001</v>
       </c>
       <c r="O2">
-        <v>0.5356624298519768</v>
+        <v>0.6569357730026921</v>
       </c>
       <c r="P2">
-        <v>0.5831288282815508</v>
+        <v>0.6780946256479073</v>
       </c>
       <c r="Q2">
-        <v>0.2162918434933334</v>
+        <v>0.078855583716</v>
       </c>
       <c r="R2">
-        <v>1.94662659144</v>
+        <v>0.7097002534440001</v>
       </c>
       <c r="S2">
-        <v>0.05152046449593824</v>
+        <v>0.01800698286973793</v>
       </c>
       <c r="T2">
-        <v>0.05636853322542443</v>
+        <v>0.01987257903773672</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.07108</v>
+        <v>0.02601433333333333</v>
       </c>
       <c r="H3">
-        <v>0.21324</v>
+        <v>0.078043</v>
       </c>
       <c r="I3">
-        <v>0.09618084380152485</v>
+        <v>0.0274105682925934</v>
       </c>
       <c r="J3">
-        <v>0.0966656602993535</v>
+        <v>0.02930649836480982</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>3.203747</v>
       </c>
       <c r="O3">
-        <v>0.1879902916822836</v>
+        <v>0.2314409052885859</v>
       </c>
       <c r="P3">
-        <v>0.2046485853922773</v>
+        <v>0.2388952474211406</v>
       </c>
       <c r="Q3">
-        <v>0.07590744558666668</v>
+        <v>0.02778111412455556</v>
       </c>
       <c r="R3">
-        <v>0.68316701028</v>
+        <v>0.250030027121</v>
       </c>
       <c r="S3">
-        <v>0.01808106488049682</v>
+        <v>0.006343926740112425</v>
       </c>
       <c r="T3">
-        <v>0.01978249063627311</v>
+        <v>0.007001183177908495</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.07108</v>
+        <v>0.02601433333333333</v>
       </c>
       <c r="H4">
-        <v>0.21324</v>
+        <v>0.078043</v>
       </c>
       <c r="I4">
-        <v>0.09618084380152485</v>
+        <v>0.0274105682925934</v>
       </c>
       <c r="J4">
-        <v>0.0966656602993535</v>
+        <v>0.02930649836480982</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.02258333333333333</v>
+        <v>0.04253966666666667</v>
       </c>
       <c r="N4">
-        <v>0.06775</v>
+        <v>0.127619</v>
       </c>
       <c r="O4">
-        <v>0.003975451950942043</v>
+        <v>0.009219285072143351</v>
       </c>
       <c r="P4">
-        <v>0.004327726771285868</v>
+        <v>0.009516223528461688</v>
       </c>
       <c r="Q4">
-        <v>0.001605223333333333</v>
+        <v>0.001106641068555556</v>
       </c>
       <c r="R4">
-        <v>0.01444701</v>
+        <v>0.009959769617000002</v>
       </c>
       <c r="S4">
-        <v>0.0003823623231340238</v>
+        <v>0.0002527058430788722</v>
       </c>
       <c r="T4">
-        <v>0.0004183425659415377</v>
+        <v>0.0002788871892760272</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.07108</v>
+        <v>0.02601433333333333</v>
       </c>
       <c r="H5">
-        <v>0.21324</v>
+        <v>0.078043</v>
       </c>
       <c r="I5">
-        <v>0.09618084380152485</v>
+        <v>0.0274105682925934</v>
       </c>
       <c r="J5">
-        <v>0.0966656602993535</v>
+        <v>0.02930649836480982</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.3872175</v>
+        <v>0.4319364999999999</v>
       </c>
       <c r="N5">
-        <v>2.774435</v>
+        <v>0.8638729999999999</v>
       </c>
       <c r="O5">
-        <v>0.2441985173471266</v>
+        <v>0.09361017700884301</v>
       </c>
       <c r="P5">
-        <v>0.1772250424308857</v>
+        <v>0.06441680759293508</v>
       </c>
       <c r="Q5">
-        <v>0.09860341989999999</v>
+        <v>0.01123654008983333</v>
       </c>
       <c r="R5">
-        <v>0.5916205193999999</v>
+        <v>0.06741924053899999</v>
       </c>
       <c r="S5">
-        <v>0.02348721945352794</v>
+        <v>0.002565908149782649</v>
       </c>
       <c r="T5">
-        <v>0.01713157574816251</v>
+        <v>0.001887831066388621</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.07108</v>
+        <v>0.02601433333333333</v>
       </c>
       <c r="H6">
-        <v>0.21324</v>
+        <v>0.078043</v>
       </c>
       <c r="I6">
-        <v>0.09618084380152485</v>
+        <v>0.0274105682925934</v>
       </c>
       <c r="J6">
-        <v>0.0966656602993535</v>
+        <v>0.02930649836480982</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.160044</v>
+        <v>0.04057666666666667</v>
       </c>
       <c r="N6">
-        <v>0.480132</v>
+        <v>0.12173</v>
       </c>
       <c r="O6">
-        <v>0.02817330916767092</v>
+        <v>0.008793859627735762</v>
       </c>
       <c r="P6">
-        <v>0.03066981712400039</v>
+        <v>0.009077095809555328</v>
       </c>
       <c r="Q6">
-        <v>0.01137592752</v>
+        <v>0.001055574932222222</v>
       </c>
       <c r="R6">
-        <v>0.10238334768</v>
+        <v>0.009500174390000001</v>
       </c>
       <c r="S6">
-        <v>0.002709732648427824</v>
+        <v>0.0002410446898815311</v>
       </c>
       <c r="T6">
-        <v>0.002964718123551916</v>
+        <v>0.0002660178934999553</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.5974876666666668</v>
+        <v>0.5974876666666666</v>
       </c>
       <c r="H7">
         <v>1.792463</v>
       </c>
       <c r="I7">
-        <v>0.8084815410946006</v>
+        <v>0.6295558791108344</v>
       </c>
       <c r="J7">
-        <v>0.8125568348206719</v>
+        <v>0.6731009056351255</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.042935333333334</v>
+        <v>3.031236</v>
       </c>
       <c r="N7">
-        <v>9.128806000000001</v>
+        <v>9.093708000000001</v>
       </c>
       <c r="O7">
-        <v>0.5356624298519768</v>
+        <v>0.6569357730026921</v>
       </c>
       <c r="P7">
-        <v>0.5831288282815508</v>
+        <v>0.6780946256479073</v>
       </c>
       <c r="Q7">
-        <v>1.818116332130889</v>
+        <v>1.811126124756</v>
       </c>
       <c r="R7">
-        <v>16.363046989178</v>
+        <v>16.300135122804</v>
       </c>
       <c r="S7">
-        <v>0.4330731867932046</v>
+        <v>0.4135777780920654</v>
       </c>
       <c r="T7">
-        <v>0.473825315001144</v>
+        <v>0.4564261066299178</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5974876666666668</v>
+        <v>0.5974876666666666</v>
       </c>
       <c r="H8">
         <v>1.792463</v>
       </c>
       <c r="I8">
-        <v>0.8084815410946006</v>
+        <v>0.6295558791108344</v>
       </c>
       <c r="J8">
-        <v>0.8125568348206719</v>
+        <v>0.6731009056351255</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>3.203747</v>
       </c>
       <c r="O8">
-        <v>0.1879902916822836</v>
+        <v>0.2314409052885859</v>
       </c>
       <c r="P8">
-        <v>0.2046485853922773</v>
+        <v>0.2388952474211406</v>
       </c>
       <c r="Q8">
-        <v>0.6380664398734446</v>
+        <v>0.6380664398734445</v>
       </c>
       <c r="R8">
-        <v>5.742597958861</v>
+        <v>5.742597958860999</v>
       </c>
       <c r="S8">
-        <v>0.1519866807301161</v>
+        <v>0.145704982591163</v>
       </c>
       <c r="T8">
-        <v>0.1662886067968768</v>
+        <v>0.1608006073910971</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5974876666666668</v>
+        <v>0.5974876666666666</v>
       </c>
       <c r="H9">
         <v>1.792463</v>
       </c>
       <c r="I9">
-        <v>0.8084815410946006</v>
+        <v>0.6295558791108344</v>
       </c>
       <c r="J9">
-        <v>0.8125568348206719</v>
+        <v>0.6731009056351255</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,28 +992,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.02258333333333333</v>
+        <v>0.04253966666666667</v>
       </c>
       <c r="N9">
-        <v>0.06775</v>
+        <v>0.127619</v>
       </c>
       <c r="O9">
-        <v>0.003975451950942043</v>
+        <v>0.009219285072143351</v>
       </c>
       <c r="P9">
-        <v>0.004327726771285868</v>
+        <v>0.009516223528461688</v>
       </c>
       <c r="Q9">
-        <v>0.01349326313888889</v>
+        <v>0.02541692617744444</v>
       </c>
       <c r="R9">
-        <v>0.12143936825</v>
+        <v>0.228752335597</v>
       </c>
       <c r="S9">
-        <v>0.003214079519845159</v>
+        <v>0.0058040551183666</v>
       </c>
       <c r="T9">
-        <v>0.003516523967244731</v>
+        <v>0.006405378675233852</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5974876666666668</v>
+        <v>0.5974876666666666</v>
       </c>
       <c r="H10">
         <v>1.792463</v>
       </c>
       <c r="I10">
-        <v>0.8084815410946006</v>
+        <v>0.6295558791108344</v>
       </c>
       <c r="J10">
-        <v>0.8125568348206719</v>
+        <v>0.6731009056351255</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.3872175</v>
+        <v>0.4319364999999999</v>
       </c>
       <c r="N10">
-        <v>2.774435</v>
+        <v>0.8638729999999999</v>
       </c>
       <c r="O10">
-        <v>0.2441985173471266</v>
+        <v>0.09361017700884301</v>
       </c>
       <c r="P10">
-        <v>0.1772250424308857</v>
+        <v>0.06441680759293508</v>
       </c>
       <c r="Q10">
-        <v>0.8288453472341667</v>
+        <v>0.2580767315331666</v>
       </c>
       <c r="R10">
-        <v>4.973072083405</v>
+        <v>1.548460389199</v>
       </c>
       <c r="S10">
-        <v>0.1974299936378215</v>
+        <v>0.05893283728052298</v>
       </c>
       <c r="T10">
-        <v>0.1440054195285997</v>
+        <v>0.04335901152892823</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5974876666666668</v>
+        <v>0.5974876666666666</v>
       </c>
       <c r="H11">
         <v>1.792463</v>
       </c>
       <c r="I11">
-        <v>0.8084815410946006</v>
+        <v>0.6295558791108344</v>
       </c>
       <c r="J11">
-        <v>0.8125568348206719</v>
+        <v>0.6731009056351255</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.160044</v>
+        <v>0.04057666666666667</v>
       </c>
       <c r="N11">
-        <v>0.480132</v>
+        <v>0.12173</v>
       </c>
       <c r="O11">
-        <v>0.02817330916767092</v>
+        <v>0.008793859627735762</v>
       </c>
       <c r="P11">
-        <v>0.03066981712400039</v>
+        <v>0.009077095809555328</v>
       </c>
       <c r="Q11">
-        <v>0.09562431612400001</v>
+        <v>0.02424405788777778</v>
       </c>
       <c r="R11">
-        <v>0.8606188451160001</v>
+        <v>0.21819652099</v>
       </c>
       <c r="S11">
-        <v>0.02277760041361322</v>
+        <v>0.005536226028716463</v>
       </c>
       <c r="T11">
-        <v>0.0249209695268066</v>
+        <v>0.006109801409948493</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.0111195</v>
+        <v>0.02748066666666667</v>
       </c>
       <c r="H12">
-        <v>0.022239</v>
+        <v>0.082442</v>
       </c>
       <c r="I12">
-        <v>0.01504618588422982</v>
+        <v>0.02895560231126412</v>
       </c>
       <c r="J12">
-        <v>0.01008135255766893</v>
+        <v>0.03095839906451124</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.042935333333334</v>
+        <v>3.031236</v>
       </c>
       <c r="N12">
-        <v>9.128806000000001</v>
+        <v>9.093708000000001</v>
       </c>
       <c r="O12">
-        <v>0.5356624298519768</v>
+        <v>0.6569357730026921</v>
       </c>
       <c r="P12">
-        <v>0.5831288282815508</v>
+        <v>0.6780946256479073</v>
       </c>
       <c r="Q12">
-        <v>0.03383591943900001</v>
+        <v>0.08330038610400001</v>
       </c>
       <c r="R12">
-        <v>0.203015516634</v>
+        <v>0.7497034749360001</v>
       </c>
       <c r="S12">
-        <v>0.008059676490751058</v>
+        <v>0.01902197098710883</v>
       </c>
       <c r="T12">
-        <v>0.005878727304446697</v>
+        <v>0.02099272402430828</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.0111195</v>
+        <v>0.02748066666666667</v>
       </c>
       <c r="H13">
-        <v>0.022239</v>
+        <v>0.082442</v>
       </c>
       <c r="I13">
-        <v>0.01504618588422982</v>
+        <v>0.02895560231126412</v>
       </c>
       <c r="J13">
-        <v>0.01008135255766893</v>
+        <v>0.03095839906451124</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>3.203747</v>
       </c>
       <c r="O13">
-        <v>0.1879902916822836</v>
+        <v>0.2314409052885859</v>
       </c>
       <c r="P13">
-        <v>0.2046485853922773</v>
+        <v>0.2388952474211406</v>
       </c>
       <c r="Q13">
-        <v>0.0118746882555</v>
+        <v>0.02934703446377778</v>
       </c>
       <c r="R13">
-        <v>0.071248129533</v>
+        <v>0.264123310174</v>
       </c>
       <c r="S13">
-        <v>0.002828536873082222</v>
+        <v>0.006701510812095237</v>
       </c>
       <c r="T13">
-        <v>0.002063134539767763</v>
+        <v>0.007395814404278822</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.0111195</v>
+        <v>0.02748066666666667</v>
       </c>
       <c r="H14">
-        <v>0.022239</v>
+        <v>0.082442</v>
       </c>
       <c r="I14">
-        <v>0.01504618588422982</v>
+        <v>0.02895560231126412</v>
       </c>
       <c r="J14">
-        <v>0.01008135255766893</v>
+        <v>0.03095839906451124</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1302,28 +1302,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.02258333333333333</v>
+        <v>0.04253966666666667</v>
       </c>
       <c r="N14">
-        <v>0.06775</v>
+        <v>0.127619</v>
       </c>
       <c r="O14">
-        <v>0.003975451950942043</v>
+        <v>0.009219285072143351</v>
       </c>
       <c r="P14">
-        <v>0.004327726771285868</v>
+        <v>0.009516223528461688</v>
       </c>
       <c r="Q14">
-        <v>0.000251115375</v>
+        <v>0.001169018399777778</v>
       </c>
       <c r="R14">
-        <v>0.00150669225</v>
+        <v>0.010521165598</v>
       </c>
       <c r="S14">
-        <v>5.981538902769805E-05</v>
+        <v>0.0002669499521431568</v>
       </c>
       <c r="T14">
-        <v>4.362933935459508E-05</v>
+        <v>0.0002946070455812082</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.0111195</v>
+        <v>0.02748066666666667</v>
       </c>
       <c r="H15">
-        <v>0.022239</v>
+        <v>0.082442</v>
       </c>
       <c r="I15">
-        <v>0.01504618588422982</v>
+        <v>0.02895560231126412</v>
       </c>
       <c r="J15">
-        <v>0.01008135255766893</v>
+        <v>0.03095839906451124</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.3872175</v>
+        <v>0.4319364999999999</v>
       </c>
       <c r="N15">
-        <v>2.774435</v>
+        <v>0.8638729999999999</v>
       </c>
       <c r="O15">
-        <v>0.2441985173471266</v>
+        <v>0.09361017700884301</v>
       </c>
       <c r="P15">
-        <v>0.1772250424308857</v>
+        <v>0.06441680759293508</v>
       </c>
       <c r="Q15">
-        <v>0.01542516499125</v>
+        <v>0.01186990297766666</v>
       </c>
       <c r="R15">
-        <v>0.06170065996499999</v>
+        <v>0.07121941786599999</v>
       </c>
       <c r="S15">
-        <v>0.003674256284658186</v>
+        <v>0.002710539057755098</v>
       </c>
       <c r="T15">
-        <v>0.001786668134793594</v>
+        <v>0.001994241235923922</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.02748066666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.082442</v>
+      </c>
+      <c r="I16">
+        <v>0.02895560231126412</v>
+      </c>
+      <c r="J16">
+        <v>0.03095839906451124</v>
+      </c>
+      <c r="K16">
         <v>2</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.0111195</v>
-      </c>
-      <c r="H16">
-        <v>0.022239</v>
-      </c>
-      <c r="I16">
-        <v>0.01504618588422982</v>
-      </c>
-      <c r="J16">
-        <v>0.01008135255766893</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.160044</v>
+        <v>0.04057666666666667</v>
       </c>
       <c r="N16">
-        <v>0.480132</v>
+        <v>0.12173</v>
       </c>
       <c r="O16">
-        <v>0.02817330916767092</v>
+        <v>0.008793859627735762</v>
       </c>
       <c r="P16">
-        <v>0.03066981712400039</v>
+        <v>0.009077095809555328</v>
       </c>
       <c r="Q16">
-        <v>0.001779609258</v>
+        <v>0.001115073851111111</v>
       </c>
       <c r="R16">
-        <v>0.010677655548</v>
+        <v>0.01003566466</v>
       </c>
       <c r="S16">
-        <v>0.0004239008467106527</v>
+        <v>0.0002546315021617978</v>
       </c>
       <c r="T16">
-        <v>0.0003091932393062796</v>
+        <v>0.0002810123544190166</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.05933733333333333</v>
+        <v>0.1841935</v>
       </c>
       <c r="H17">
-        <v>0.178012</v>
+        <v>0.368387</v>
       </c>
       <c r="I17">
-        <v>0.08029142921964472</v>
+        <v>0.1940794886460722</v>
       </c>
       <c r="J17">
-        <v>0.08069615232230591</v>
+        <v>0.1383356997183245</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.042935333333334</v>
+        <v>3.031236</v>
       </c>
       <c r="N17">
-        <v>9.128806000000001</v>
+        <v>9.093708000000001</v>
       </c>
       <c r="O17">
-        <v>0.5356624298519768</v>
+        <v>0.6569357730026921</v>
       </c>
       <c r="P17">
-        <v>0.5831288282815508</v>
+        <v>0.6780946256479073</v>
       </c>
       <c r="Q17">
-        <v>0.1805596681857778</v>
+        <v>0.5583339681660001</v>
       </c>
       <c r="R17">
-        <v>1.625037013672</v>
+        <v>3.350003808996</v>
       </c>
       <c r="S17">
-        <v>0.0430091020720829</v>
+        <v>0.1274977588976746</v>
       </c>
       <c r="T17">
-        <v>0.04705625275053579</v>
+        <v>0.09380469451423855</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.05933733333333333</v>
+        <v>0.1841935</v>
       </c>
       <c r="H18">
-        <v>0.178012</v>
+        <v>0.368387</v>
       </c>
       <c r="I18">
-        <v>0.08029142921964472</v>
+        <v>0.1940794886460722</v>
       </c>
       <c r="J18">
-        <v>0.08069615232230591</v>
+        <v>0.1383356997183245</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>3.203747</v>
       </c>
       <c r="O18">
-        <v>0.1879902916822836</v>
+        <v>0.2314409052885859</v>
       </c>
       <c r="P18">
-        <v>0.2046485853922773</v>
+        <v>0.2388952474211406</v>
       </c>
       <c r="Q18">
-        <v>0.06336726788488889</v>
+        <v>0.1967031243481667</v>
       </c>
       <c r="R18">
-        <v>0.570305410964</v>
+        <v>1.180218746089</v>
       </c>
       <c r="S18">
-        <v>0.01509400919858844</v>
+        <v>0.04491793255019277</v>
       </c>
       <c r="T18">
-        <v>0.01651435341935964</v>
+        <v>0.03304774121138573</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.05933733333333333</v>
+        <v>0.1841935</v>
       </c>
       <c r="H19">
-        <v>0.178012</v>
+        <v>0.368387</v>
       </c>
       <c r="I19">
-        <v>0.08029142921964472</v>
+        <v>0.1940794886460722</v>
       </c>
       <c r="J19">
-        <v>0.08069615232230591</v>
+        <v>0.1383356997183245</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1612,28 +1612,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.02258333333333333</v>
+        <v>0.04253966666666667</v>
       </c>
       <c r="N19">
-        <v>0.06775</v>
+        <v>0.127619</v>
       </c>
       <c r="O19">
-        <v>0.003975451950942043</v>
+        <v>0.009219285072143351</v>
       </c>
       <c r="P19">
-        <v>0.004327726771285868</v>
+        <v>0.009516223528461688</v>
       </c>
       <c r="Q19">
-        <v>0.001340034777777778</v>
+        <v>0.007835530092166667</v>
       </c>
       <c r="R19">
-        <v>0.012060313</v>
+        <v>0.04701318055300001</v>
       </c>
       <c r="S19">
-        <v>0.0003191947189351615</v>
+        <v>0.001789274132483948</v>
       </c>
       <c r="T19">
-        <v>0.0003492308987450056</v>
+        <v>0.00131643344048573</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.05933733333333333</v>
+        <v>0.1841935</v>
       </c>
       <c r="H20">
-        <v>0.178012</v>
+        <v>0.368387</v>
       </c>
       <c r="I20">
-        <v>0.08029142921964472</v>
+        <v>0.1940794886460722</v>
       </c>
       <c r="J20">
-        <v>0.08069615232230591</v>
+        <v>0.1383356997183245</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.3872175</v>
+        <v>0.4319364999999999</v>
       </c>
       <c r="N20">
-        <v>2.774435</v>
+        <v>0.8638729999999999</v>
       </c>
       <c r="O20">
-        <v>0.2441985173471266</v>
+        <v>0.09361017700884301</v>
       </c>
       <c r="P20">
-        <v>0.1772250424308857</v>
+        <v>0.06441680759293508</v>
       </c>
       <c r="Q20">
-        <v>0.08231378720333332</v>
+        <v>0.07955989571274999</v>
       </c>
       <c r="R20">
-        <v>0.4938827232199999</v>
+        <v>0.318239582851</v>
       </c>
       <c r="S20">
-        <v>0.019607047971119</v>
+        <v>0.01816781528594455</v>
       </c>
       <c r="T20">
-        <v>0.01430137901932988</v>
+        <v>0.008911144151989351</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.1841935</v>
+      </c>
+      <c r="H21">
+        <v>0.368387</v>
+      </c>
+      <c r="I21">
+        <v>0.1940794886460722</v>
+      </c>
+      <c r="J21">
+        <v>0.1383356997183245</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.04057666666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.12173</v>
+      </c>
+      <c r="O21">
+        <v>0.008793859627735762</v>
+      </c>
+      <c r="P21">
+        <v>0.009077095809555328</v>
+      </c>
+      <c r="Q21">
+        <v>0.007473958251666668</v>
+      </c>
+      <c r="R21">
+        <v>0.04484374951</v>
+      </c>
+      <c r="S21">
+        <v>0.001706707779776295</v>
+      </c>
+      <c r="T21">
+        <v>0.001255686400225107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.113886</v>
+      </c>
+      <c r="H22">
+        <v>0.341658</v>
+      </c>
+      <c r="I22">
+        <v>0.1199984616392358</v>
+      </c>
+      <c r="J22">
+        <v>0.1282984972172289</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.031236</v>
+      </c>
+      <c r="N22">
+        <v>9.093708000000001</v>
+      </c>
+      <c r="O22">
+        <v>0.6569357730026921</v>
+      </c>
+      <c r="P22">
+        <v>0.6780946256479073</v>
+      </c>
+      <c r="Q22">
+        <v>0.345215343096</v>
+      </c>
+      <c r="R22">
+        <v>3.106938087864</v>
+      </c>
+      <c r="S22">
+        <v>0.07883128215610526</v>
+      </c>
+      <c r="T22">
+        <v>0.0869985214417059</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.113886</v>
+      </c>
+      <c r="H23">
+        <v>0.341658</v>
+      </c>
+      <c r="I23">
+        <v>0.1199984616392358</v>
+      </c>
+      <c r="J23">
+        <v>0.1282984972172289</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.067915666666667</v>
+      </c>
+      <c r="N23">
+        <v>3.203747</v>
+      </c>
+      <c r="O23">
+        <v>0.2314409052885859</v>
+      </c>
+      <c r="P23">
+        <v>0.2388952474211406</v>
+      </c>
+      <c r="Q23">
+        <v>0.121620643614</v>
+      </c>
+      <c r="R23">
+        <v>1.094585792526</v>
+      </c>
+      <c r="S23">
+        <v>0.02777255259502237</v>
+      </c>
+      <c r="T23">
+        <v>0.03064990123647042</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.113886</v>
+      </c>
+      <c r="H24">
+        <v>0.341658</v>
+      </c>
+      <c r="I24">
+        <v>0.1199984616392358</v>
+      </c>
+      <c r="J24">
+        <v>0.1282984972172289</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.04253966666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.127619</v>
+      </c>
+      <c r="O24">
+        <v>0.009219285072143351</v>
+      </c>
+      <c r="P24">
+        <v>0.009516223528461688</v>
+      </c>
+      <c r="Q24">
+        <v>0.004844672478</v>
+      </c>
+      <c r="R24">
+        <v>0.043602052302</v>
+      </c>
+      <c r="S24">
+        <v>0.001106300026070773</v>
+      </c>
+      <c r="T24">
+        <v>0.00122091717788487</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.05933733333333333</v>
-      </c>
-      <c r="H21">
-        <v>0.178012</v>
-      </c>
-      <c r="I21">
-        <v>0.08029142921964472</v>
-      </c>
-      <c r="J21">
-        <v>0.08069615232230591</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.160044</v>
-      </c>
-      <c r="N21">
-        <v>0.480132</v>
-      </c>
-      <c r="O21">
-        <v>0.02817330916767092</v>
-      </c>
-      <c r="P21">
-        <v>0.03066981712400039</v>
-      </c>
-      <c r="Q21">
-        <v>0.009496584176</v>
-      </c>
-      <c r="R21">
-        <v>0.08546925758400001</v>
-      </c>
-      <c r="S21">
-        <v>0.002262075258919217</v>
-      </c>
-      <c r="T21">
-        <v>0.002474936234335601</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.113886</v>
+      </c>
+      <c r="H25">
+        <v>0.341658</v>
+      </c>
+      <c r="I25">
+        <v>0.1199984616392358</v>
+      </c>
+      <c r="J25">
+        <v>0.1282984972172289</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.4319364999999999</v>
+      </c>
+      <c r="N25">
+        <v>0.8638729999999999</v>
+      </c>
+      <c r="O25">
+        <v>0.09361017700884301</v>
+      </c>
+      <c r="P25">
+        <v>0.06441680759293508</v>
+      </c>
+      <c r="Q25">
+        <v>0.049191520239</v>
+      </c>
+      <c r="R25">
+        <v>0.295149121434</v>
+      </c>
+      <c r="S25">
+        <v>0.01123307723483772</v>
+      </c>
+      <c r="T25">
+        <v>0.008264579609704951</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.113886</v>
+      </c>
+      <c r="H26">
+        <v>0.341658</v>
+      </c>
+      <c r="I26">
+        <v>0.1199984616392358</v>
+      </c>
+      <c r="J26">
+        <v>0.1282984972172289</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.04057666666666667</v>
+      </c>
+      <c r="N26">
+        <v>0.12173</v>
+      </c>
+      <c r="O26">
+        <v>0.008793859627735762</v>
+      </c>
+      <c r="P26">
+        <v>0.009077095809555328</v>
+      </c>
+      <c r="Q26">
+        <v>0.004621114260000001</v>
+      </c>
+      <c r="R26">
+        <v>0.04159002834</v>
+      </c>
+      <c r="S26">
+        <v>0.001055249627199674</v>
+      </c>
+      <c r="T26">
+        <v>0.001164577751462754</v>
       </c>
     </row>
   </sheetData>
